--- a/data/raw/Data_Pizza.xlsx
+++ b/data/raw/Data_Pizza.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceuedu-my.sharepoint.com/personal/szabo_terez_student_ceu_edu/Documents/Data_Analysis_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8b45fca29679de1/Bureau/CEU/DA1/DA_team_project/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BB67F7-FEF8-423D-BA9E-5DDDE83ACD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{98BB67F7-FEF8-423D-BA9E-5DDDE83ACD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9CBDB87-C1F3-4014-BE9E-5807D5DA6124}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766EA92D-B2ED-445F-A457-B360843033AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{766EA92D-B2ED-445F-A457-B360843033AA}"/>
   </bookViews>
   <sheets>
     <sheet name="pizza_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,12 +480,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -510,58 +504,33 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDBDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -569,79 +538,70 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC9C9C9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC9C9C9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -653,25 +613,35 @@
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <right style="thin">
-          <color rgb="FFC9C9C9"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -692,70 +662,96 @@
       </font>
       <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor rgb="FFEDEDED"/>
-          <bgColor rgb="FFEDEDED"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC9C9C9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC9C9C9"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -769,58 +765,53 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor rgb="FFEDEDED"/>
-          <bgColor rgb="FFEDEDED"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC9C9C9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC9C9C9"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC9C9C9"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC9C9C9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <name val="Calibri"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -836,12 +827,24 @@
         <family val="2"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -857,7 +860,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE032252-B055-49E5-878D-3C0D3EF345CB}" name="Table1" displayName="Table1" ref="A2:O42" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE032252-B055-49E5-878D-3C0D3EF345CB}" name="Table1" displayName="Table1" ref="A2:O42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
   <autoFilter ref="A2:O42" xr:uid="{2F480E6D-F058-4B7F-BCA4-FF1B5313A4E9}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{62FD63ED-5730-457B-9C70-D636FB81702D}" name="id" dataDxfId="14"/>
@@ -876,7 +879,7 @@
     <tableColumn id="14" xr3:uid="{F3D28ABE-84C6-4FB3-921A-4D4B96166578}" name="price_bev" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{4D666295-B978-4A7E-99C4-FC250498E7CB}" name="price_del" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1181,75 +1184,76 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1262,37 +1266,37 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1300,7 +1304,7 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1318,10 +1322,10 @@
       <c r="G3" s="11">
         <v>19.051918000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>272</v>
       </c>
       <c r="J3" s="12">
@@ -1330,13 +1334,13 @@
       <c r="K3" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>13</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>3920</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>400</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -1344,49 +1348,49 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <v>47.502079999999999</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <v>19.050875000000001</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="7">
         <v>159</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="7">
         <v>26</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="7">
         <v>1290</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="7">
         <v>350</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1394,16 +1398,16 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="11">
@@ -1412,10 +1416,10 @@
       <c r="G5" s="11">
         <v>19.049049</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>4.3</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>909</v>
       </c>
       <c r="J5" s="12">
@@ -1424,13 +1428,13 @@
       <c r="K5" s="12">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>26</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="16">
         <v>2640</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="16">
         <v>1090</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -1438,49 +1442,49 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>47.500967000000003</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>19.064069</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="7">
         <v>3.8</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="7">
         <v>58</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="12">
         <v>0.4375</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="7">
         <v>16</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="7">
         <v>1790</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="7">
         <v>490</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1488,13 +1492,13 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1506,10 +1510,10 @@
       <c r="G7" s="11">
         <v>19.055313000000002</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>4.8</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>382</v>
       </c>
       <c r="J7" s="12">
@@ -1518,13 +1522,13 @@
       <c r="K7" s="12">
         <v>0.875</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>30</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>1790</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>950</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -1532,49 +1536,49 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="11">
         <v>47.498519000000002</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <v>19.059332999999999</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="7">
         <v>3.9</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="7">
         <v>2103</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="12">
         <v>0.97916666666666663</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="7">
         <v>10</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="7">
         <v>1980</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="7">
         <v>860</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1582,13 +1586,13 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1600,10 +1604,10 @@
       <c r="G9" s="11">
         <v>19.082142999999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>66</v>
       </c>
       <c r="J9" s="12">
@@ -1612,13 +1616,13 @@
       <c r="K9" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>63</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>1701</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>280</v>
       </c>
       <c r="O9" s="7" t="s">
@@ -1626,49 +1630,49 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>47.512191999999999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>19.063676000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="7">
         <v>4.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="7">
         <v>177</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="7">
         <v>55</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="7">
         <v>1990</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="7">
         <v>890</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1676,13 +1680,13 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1694,10 +1698,10 @@
       <c r="G11" s="11">
         <v>19.067003</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>4.7</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>18</v>
       </c>
       <c r="J11" s="12">
@@ -1706,13 +1710,13 @@
       <c r="K11" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>27</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>2590</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>500</v>
       </c>
       <c r="O11" s="7" t="s">
@@ -1720,49 +1724,49 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>47.495787</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>19.061724999999999</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="7">
         <v>4.3</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="7">
         <v>267</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="7">
         <v>18</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="7">
         <v>1200</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="7">
         <v>400</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1770,13 +1774,13 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1788,10 +1792,10 @@
       <c r="G13" s="11">
         <v>19.010414000000001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>4.5</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>721</v>
       </c>
       <c r="J13" s="12">
@@ -1800,13 +1804,13 @@
       <c r="K13" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>58</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>1850</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>650</v>
       </c>
       <c r="O13" s="7" t="s">
@@ -1814,49 +1818,49 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>47.510891000000001</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <v>19.030021999999999</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="7">
         <v>1620</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="12">
         <v>0.5</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="7">
         <v>18</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="7">
         <v>2290</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="7">
         <v>790</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1864,13 +1868,13 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1882,10 +1886,10 @@
       <c r="G15" s="11">
         <v>19.026206999999999</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>639</v>
       </c>
       <c r="J15" s="12">
@@ -1894,13 +1898,13 @@
       <c r="K15" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>32</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>1790</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>690</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -1908,49 +1912,49 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>47.521039999999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>19.037537</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="7">
         <v>4.5</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="7">
         <v>415</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="12">
         <v>0.5</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="7">
         <v>23</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="7">
         <v>2490</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="7">
         <v>950</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1958,13 +1962,13 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1976,10 +1980,10 @@
       <c r="G17" s="11">
         <v>19.028873999999998</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>4.7</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>1083</v>
       </c>
       <c r="J17" s="12">
@@ -1988,13 +1992,13 @@
       <c r="K17" s="12">
         <v>0.9375</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>10</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>1990</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>890</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -2002,49 +2006,49 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <v>47.516171</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="11">
         <v>19.027066000000001</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="7">
         <v>1288</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="12">
         <v>0.5</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="7">
         <v>23</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="7">
         <v>2290</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="7">
         <v>790</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2052,13 +2056,13 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2070,10 +2074,10 @@
       <c r="G19" s="11">
         <v>19.023837</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>4.2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>96</v>
       </c>
       <c r="J19" s="12">
@@ -2082,13 +2086,13 @@
       <c r="K19" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>35</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>1890</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>550</v>
       </c>
       <c r="O19" s="7" t="s">
@@ -2096,49 +2100,49 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>47.539234</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>19.062224000000001</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="7">
         <v>160</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="7">
         <v>21</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="7">
         <v>1600</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="7">
         <v>600</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2146,13 +2150,13 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2164,10 +2168,10 @@
       <c r="G21" s="11">
         <v>19.034098</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>4.3</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>1168</v>
       </c>
       <c r="J21" s="12">
@@ -2176,13 +2180,13 @@
       <c r="K21" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>21</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>1720</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>980</v>
       </c>
       <c r="O21" s="7" t="s">
@@ -2190,63 +2194,63 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>47.480603000000002</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <v>19.050819000000001</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="7">
         <v>4.2</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="7">
         <v>613</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="7">
         <v>18</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="7">
         <v>1850</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="7">
         <v>800</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="23">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2258,10 +2262,10 @@
       <c r="G23" s="11">
         <v>19.069578</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>3</v>
       </c>
       <c r="J23" s="12">
@@ -2270,13 +2274,13 @@
       <c r="K23" s="12">
         <v>0.95486111111111116</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>13</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>2290</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>500</v>
       </c>
       <c r="O23" s="7">
@@ -2284,63 +2288,63 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="23">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>47.486865000000002</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="11">
         <v>19.062166999999999</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="7">
         <v>110</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="12">
         <v>0.4375</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="7">
         <v>17</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="7">
         <v>2150</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="7">
         <v>530</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="23">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2352,10 +2356,10 @@
       <c r="G25" s="11">
         <v>19.062956</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>3.7</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>77</v>
       </c>
       <c r="J25" s="12">
@@ -2364,13 +2368,13 @@
       <c r="K25" s="12">
         <v>0.95486111111111116</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>25</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>1890</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>400</v>
       </c>
       <c r="O25" s="7">
@@ -2378,63 +2382,63 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="23">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>47.496098000000003</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="11">
         <v>19.059664999999999</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="7">
         <v>51</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="12">
         <v>0.89236111111111116</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="7">
         <v>15</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="7">
         <v>2490</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="7">
         <v>590</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="23">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2446,10 +2450,10 @@
       <c r="G27" s="11">
         <v>19.066486000000001</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>4.5</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>2525</v>
       </c>
       <c r="J27" s="12">
@@ -2458,13 +2462,13 @@
       <c r="K27" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>18</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>2150</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>590</v>
       </c>
       <c r="O27" s="7">
@@ -2472,63 +2476,63 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="23">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>47.475881999999999</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>19.074135999999999</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="7">
         <v>306</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="12">
         <v>0.61458333333333337</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="7">
         <v>14</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="7">
         <v>1990</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="7">
         <v>400</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="7">
         <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="23">
+      <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2540,10 +2544,10 @@
       <c r="G29" s="11">
         <v>19.040724999999998</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>3</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>134</v>
       </c>
       <c r="J29" s="12">
@@ -2552,13 +2556,13 @@
       <c r="K29" s="12">
         <v>0.91319444444444453</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>21</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>1690</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>490</v>
       </c>
       <c r="O29" s="7">
@@ -2566,63 +2570,63 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="23">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <v>47.492322000000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <v>19.056438</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="7">
         <v>4.3</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="7">
         <v>1204</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="12">
         <v>0.4375</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="12">
         <v>0.95138888888888884</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="7">
         <v>14</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="7">
         <v>1490</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="7">
         <v>400</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="7">
         <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="23">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="17" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2634,10 +2638,10 @@
       <c r="G31" s="11">
         <v>19.046744</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>2.8</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>4</v>
       </c>
       <c r="J31" s="12">
@@ -2646,13 +2650,13 @@
       <c r="K31" s="12">
         <v>0.85069444444444453</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>7</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <v>2190</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>420</v>
       </c>
       <c r="O31" s="7">
@@ -2660,63 +2664,63 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="23">
+      <c r="A32" s="19">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <v>47.496670000000002</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <v>19.050049999999999</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="7">
         <v>2.6</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="7">
         <v>359</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="12">
         <v>0.875</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="7">
         <v>9</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="7">
         <v>890</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="7">
         <v>490</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="7">
         <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="23">
+      <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2728,10 +2732,10 @@
       <c r="G33" s="11">
         <v>19.093975</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>4062</v>
       </c>
       <c r="J33" s="12">
@@ -2740,13 +2744,13 @@
       <c r="K33" s="12">
         <v>0.89236111111111116</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>20</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <v>1440</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <v>350</v>
       </c>
       <c r="O33" s="7">
@@ -2754,63 +2758,63 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="23">
+      <c r="A34" s="19">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <v>47.509103000000003</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="11">
         <v>19.059239999999999</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="7">
         <v>2.5</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="7">
         <v>84</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="12">
         <v>0.4375</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="12">
         <v>0.90972222222222221</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="7">
         <v>46</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="7">
         <v>1880</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="7">
         <v>390</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="7">
         <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="23">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="17" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2822,10 +2826,10 @@
       <c r="G35" s="11">
         <v>19.051976</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>3.9</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>549</v>
       </c>
       <c r="J35" s="12">
@@ -2834,13 +2838,13 @@
       <c r="K35" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <v>17</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <v>1690</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <v>390</v>
       </c>
       <c r="O35" s="7">
@@ -2848,63 +2852,63 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="23">
+      <c r="A36" s="19">
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <v>47.506932999999997</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <v>19.05395</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="7">
         <v>3</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="7">
         <v>150</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="12">
         <v>0.4375</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="12">
         <v>0.9375</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="7">
         <v>32</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="7">
         <v>1990</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="7">
         <v>450</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="23">
+      <c r="A37" s="19">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="17" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2916,10 +2920,10 @@
       <c r="G37" s="11">
         <v>19.051172999999999</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>4.2</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>4410</v>
       </c>
       <c r="J37" s="12">
@@ -2928,13 +2932,13 @@
       <c r="K37" s="12">
         <v>0.90625</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <v>22</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>1590</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <v>400</v>
       </c>
       <c r="O37" s="7">
@@ -2942,63 +2946,63 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="23">
+      <c r="A38" s="19">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>47.487862999999997</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <v>19.063058000000002</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="19">
         <v>3.4</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="7">
         <v>440</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="12">
         <v>0.5</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="12">
         <v>0.90625</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="7">
         <v>12</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="7">
         <v>1290</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="7">
         <v>450</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="23">
+      <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="17" t="s">
         <v>127</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -3010,10 +3014,10 @@
       <c r="G39" s="11">
         <v>19.054735000000001</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>3.6</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>692</v>
       </c>
       <c r="J39" s="12">
@@ -3022,13 +3026,13 @@
       <c r="K39" s="12">
         <v>0.91319444444444453</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <v>17</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <v>2240</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <v>650</v>
       </c>
       <c r="O39" s="7">
@@ -3036,57 +3040,57 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="23">
+      <c r="A40" s="19">
         <v>38</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>47.496515000000002</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <v>19.059092</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="7">
         <v>4.2</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="7">
         <v>6388</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="12">
         <v>0.375</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="7">
         <v>6</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="7">
         <v>1490</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="7">
         <v>350</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="7">
         <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="23">
+      <c r="A41" s="19">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -3104,10 +3108,10 @@
       <c r="G41" s="11">
         <v>19.050878999999998</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>159</v>
       </c>
       <c r="J41" s="12">
@@ -3116,13 +3120,13 @@
       <c r="K41" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="7">
         <v>26</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <v>1290</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <v>350</v>
       </c>
       <c r="O41" s="7">
@@ -3130,49 +3134,49 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="23">
+      <c r="A42" s="19">
         <v>40</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>47.529946000000002</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <v>19.038345</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="7">
         <v>5</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="7">
         <v>5</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="7">
         <v>14</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="7">
         <v>1890</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="7">
         <v>450</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="7">
         <v>899</v>
       </c>
     </row>
